--- a/软件测试/测试用例.xlsx
+++ b/软件测试/测试用例.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\luying-personal-notes\软件测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B4680-920A-4136-BD13-793784676A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B13DC1A-1D07-4D57-8B2B-A204C0824356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{CF8E4205-0F74-4895-873E-7A5C43EFD78E}"/>
+    <workbookView xWindow="60" yWindow="285" windowWidth="18855" windowHeight="15360" activeTab="1" xr2:uid="{CF8E4205-0F74-4895-873E-7A5C43EFD78E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="等价类" sheetId="1" r:id="rId1"/>
+    <sheet name="边界值" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="166">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +168,561 @@
   </si>
   <si>
     <t>登录失败（密码错误）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习：根据测试点编写 qq 登录用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例1：qq 合法验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目/模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_002</t>
+  </si>
+  <si>
+    <t>qq_003</t>
+  </si>
+  <si>
+    <t>qq_004</t>
+  </si>
+  <si>
+    <t>qq合法（8位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq不合法（5位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq不合法（11位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq不合法（6位非自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开qq程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入账号
+2、点击验证按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例2：验证某城市电话号的正确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空、三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非0且非1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、空
+2、123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空非三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非四位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0开头或1开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、012
+2、123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（区号为空+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开验证电话程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入区号
+2、输入前缀
+3、输入后缀
+4、点击验证按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀：234
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（区号为3为数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀：234
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号为2位数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：12
+前缀：234
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（前缀为1位数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀：2
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（后缀为1位数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀：234
+后缀：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号为非3数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：12a
+前缀：234
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（前缀为非3数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（后缀为非3数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀：23a
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀：234
+后缀：123a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（前缀为0开头的三位数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（前缀为1开头的三位数字+其他正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀：012
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀：123
+后缀：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_005</t>
+  </si>
+  <si>
+    <t>qq不合法（为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（标题为15个非字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开标题验证程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入标题
+2、点击验证按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：15位非字符（数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_002</t>
+  </si>
+  <si>
+    <t>title_003</t>
+  </si>
+  <si>
+    <t>title_004</t>
+  </si>
+  <si>
+    <t>title_005</t>
+  </si>
+  <si>
+    <t>title_006</t>
+  </si>
+  <si>
+    <t>title_007</t>
+  </si>
+  <si>
+    <t>不合法（标题为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题为30位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：30位字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题为1位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题为29位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：29位字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（标题为31位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：31位字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题为15位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：15为字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例2：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（8位非自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开qq号码验证程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入qq号码
+2、点击验证按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：8位非自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_006</t>
+  </si>
+  <si>
+    <t>qq_007</t>
+  </si>
+  <si>
+    <t>qq_008</t>
+  </si>
+  <si>
+    <t>合法（6位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：6位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（10位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：10位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（5位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：5位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（7位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：7位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（9位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：9位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（11位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：11位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（8位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq：8位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +760,31 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,13 +823,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +850,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,16 +1210,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C043B2-6C0F-44CA-B63A-384B47C53623}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="42.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
@@ -592,64 +1227,43 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -658,24 +1272,24 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -684,24 +1298,24 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -713,13 +1327,1630 @@
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4">
+        <v>12345678</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12345</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4">
+        <v>12345678910</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8">
+        <v>234</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1234</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48672A0A-2935-44C1-A3C2-9119928A98F7}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
